--- a/output/model_comparison_summary.xlsx
+++ b/output/model_comparison_summary.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.5</v>
+        <v>8.8125</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.1875</v>
+        <v>7.9375</v>
       </c>
     </row>
   </sheetData>
